--- a/ShortversionILS/D1SMRC.xlsx
+++ b/ShortversionILS/D1SMRC.xlsx
@@ -355,7 +355,7 @@
   <dimension ref="A1:N260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -447,7 +447,7 @@
         <v>-1</v>
       </c>
       <c r="M2">
-        <f>IF(L2&lt;4,IF(L2&lt;2,IF(L2&lt;-1,IF(L2&lt;-3,0,1),2),3),4)</f>
+        <f>IF(L2&lt;9,IF(L2&lt;5,IF(L2&lt;-3,IF(L2&lt;-7,0,1),2),3),4)</f>
         <v>2</v>
       </c>
       <c r="N2">
@@ -494,8 +494,8 @@
         <v>-5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="1">IF(L3&lt;4,IF(L3&lt;2,IF(L3&lt;-1,IF(L3&lt;-3,0,1),2),3),4)</f>
-        <v>0</v>
+        <f t="shared" ref="M3:M66" si="1">IF(L3&lt;9,IF(L3&lt;5,IF(L3&lt;-3,IF(L3&lt;-7,0,1),2),3),4)</f>
+        <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="2">IF(M3&lt;3,IF(M3&lt;2,0,1),2)</f>
@@ -542,7 +542,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -683,11 +683,11 @@
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -730,11 +730,11 @@
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -824,7 +824,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
@@ -871,11 +871,11 @@
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
@@ -1153,11 +1153,11 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
@@ -1247,11 +1247,11 @@
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1341,11 +1341,11 @@
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
@@ -1811,11 +1811,11 @@
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -1905,11 +1905,11 @@
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35">
         <f t="shared" si="2"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="M38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" si="2"/>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="M39">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39">
         <f t="shared" si="2"/>
@@ -2328,11 +2328,11 @@
       </c>
       <c r="M42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2422,11 +2422,11 @@
       </c>
       <c r="M44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2469,11 +2469,11 @@
       </c>
       <c r="M45">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="M46">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N46">
         <f t="shared" si="2"/>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="M47">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47">
         <f t="shared" si="2"/>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="M48">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48">
         <f t="shared" si="2"/>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="M52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <f t="shared" si="2"/>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="M54">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -2939,11 +2939,11 @@
       </c>
       <c r="M55">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="M56">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56">
         <f t="shared" si="2"/>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="M59">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <f t="shared" si="2"/>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="M63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <f t="shared" si="2"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="M64">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64">
         <f t="shared" si="2"/>
@@ -3456,11 +3456,11 @@
       </c>
       <c r="M66">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="4">IF(L67&lt;4,IF(L67&lt;2,IF(L67&lt;-1,IF(L67&lt;-3,0,1),2),3),4)</f>
+        <f t="shared" ref="M67:M130" si="4">IF(L67&lt;9,IF(L67&lt;5,IF(L67&lt;-3,IF(L67&lt;-7,0,1),2),3),4)</f>
         <v>2</v>
       </c>
       <c r="N67">
@@ -3550,11 +3550,11 @@
       </c>
       <c r="M68">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N68">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3644,11 +3644,11 @@
       </c>
       <c r="M70">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N70">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -3691,11 +3691,11 @@
       </c>
       <c r="M71">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -3738,11 +3738,11 @@
       </c>
       <c r="M72">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N72">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="M73">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N73">
         <f t="shared" si="5"/>
@@ -3832,11 +3832,11 @@
       </c>
       <c r="M74">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N74">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -3926,11 +3926,11 @@
       </c>
       <c r="M76">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N76">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4067,11 +4067,11 @@
       </c>
       <c r="M79">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N79">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="M80">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <f t="shared" si="5"/>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="M82">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
         <f t="shared" si="5"/>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="M83">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
         <f t="shared" si="5"/>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="M84">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N84">
         <f t="shared" si="5"/>
@@ -4396,11 +4396,11 @@
       </c>
       <c r="M86">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N86">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -4537,11 +4537,11 @@
       </c>
       <c r="M89">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N89">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4584,11 +4584,11 @@
       </c>
       <c r="M90">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N90">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="M91">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N91">
         <f t="shared" si="5"/>
@@ -4678,11 +4678,11 @@
       </c>
       <c r="M92">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="M95">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N95">
         <f t="shared" si="5"/>
@@ -4866,11 +4866,11 @@
       </c>
       <c r="M96">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N96">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="M98">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98">
         <f t="shared" si="5"/>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="M100">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N100">
         <f t="shared" si="5"/>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="M102">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102">
         <f t="shared" si="5"/>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="M103">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103">
         <f t="shared" si="5"/>
@@ -5242,11 +5242,11 @@
       </c>
       <c r="M104">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N104">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -5289,11 +5289,11 @@
       </c>
       <c r="M105">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N105">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -5336,11 +5336,11 @@
       </c>
       <c r="M106">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N106">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="M107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N107">
         <f t="shared" si="5"/>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="M108">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N108">
         <f t="shared" si="5"/>
@@ -5477,11 +5477,11 @@
       </c>
       <c r="M109">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N109">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -5571,11 +5571,11 @@
       </c>
       <c r="M111">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N111">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -5618,11 +5618,11 @@
       </c>
       <c r="M112">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N112">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -5665,11 +5665,11 @@
       </c>
       <c r="M113">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N113">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="M114">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N114">
         <f t="shared" si="5"/>
@@ -5759,11 +5759,11 @@
       </c>
       <c r="M115">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N115">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -5806,11 +5806,11 @@
       </c>
       <c r="M116">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N116">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="M119">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N119">
         <f t="shared" si="5"/>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="M121">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121">
         <f t="shared" si="5"/>
@@ -6088,11 +6088,11 @@
       </c>
       <c r="M122">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N122">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -6182,11 +6182,11 @@
       </c>
       <c r="M124">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N124">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -6229,11 +6229,11 @@
       </c>
       <c r="M125">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N125">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -6323,11 +6323,11 @@
       </c>
       <c r="M127">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N127">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -6417,11 +6417,11 @@
       </c>
       <c r="M129">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N129">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -6510,8 +6510,8 @@
         <v>5</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M194" si="7">IF(L131&lt;4,IF(L131&lt;2,IF(L131&lt;-1,IF(L131&lt;-3,0,1),2),3),4)</f>
-        <v>4</v>
+        <f t="shared" ref="M131:M194" si="7">IF(L131&lt;9,IF(L131&lt;5,IF(L131&lt;-3,IF(L131&lt;-7,0,1),2),3),4)</f>
+        <v>3</v>
       </c>
       <c r="N131">
         <f t="shared" ref="N131:N194" si="8">IF(M131&lt;3,IF(M131&lt;2,0,1),2)</f>
@@ -6605,11 +6605,11 @@
       </c>
       <c r="M133">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N133">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="M134">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N134">
         <f t="shared" si="8"/>
@@ -6699,11 +6699,11 @@
       </c>
       <c r="M135">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N135">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="M136">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N136">
         <f t="shared" si="8"/>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="M138">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N138">
         <f t="shared" si="8"/>
@@ -6887,11 +6887,11 @@
       </c>
       <c r="M139">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N139">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="M140">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140">
         <f t="shared" si="8"/>
@@ -6981,11 +6981,11 @@
       </c>
       <c r="M141">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N141">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="M142">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N142">
         <f t="shared" si="8"/>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="M146">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N146">
         <f t="shared" si="8"/>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="M147">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147">
         <f t="shared" si="8"/>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="M148">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N148">
         <f t="shared" si="8"/>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="M149">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N149">
         <f t="shared" si="8"/>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="M150">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150">
         <f t="shared" si="8"/>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="M151">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151">
         <f t="shared" si="8"/>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="M152">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N152">
         <f t="shared" si="8"/>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="M153">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N153">
         <f t="shared" si="8"/>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="M154">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154">
         <f t="shared" si="8"/>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="M156">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156">
         <f t="shared" si="8"/>
@@ -7780,11 +7780,11 @@
       </c>
       <c r="M158">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N158">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
@@ -7874,11 +7874,11 @@
       </c>
       <c r="M160">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N160">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="M162">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N162">
         <f t="shared" si="8"/>
@@ -8109,11 +8109,11 @@
       </c>
       <c r="M165">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N165">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="M166">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N166">
         <f t="shared" si="8"/>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="M167">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N167">
         <f t="shared" si="8"/>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="M171">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N171">
         <f t="shared" si="8"/>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="M172">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N172">
         <f t="shared" si="8"/>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="M173">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N173">
         <f t="shared" si="8"/>
@@ -8532,11 +8532,11 @@
       </c>
       <c r="M174">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N174">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
@@ -8720,11 +8720,11 @@
       </c>
       <c r="M178">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N178">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="M180">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N180">
         <f t="shared" si="8"/>
@@ -8955,11 +8955,11 @@
       </c>
       <c r="M183">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N183">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="M184">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N184">
         <f t="shared" si="8"/>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="M187">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N187">
         <f t="shared" si="8"/>
@@ -9190,11 +9190,11 @@
       </c>
       <c r="M188">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N188">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="M189">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N189">
         <f t="shared" si="8"/>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="M191">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N191">
         <f t="shared" si="8"/>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="M192">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N192">
         <f t="shared" si="8"/>
@@ -9425,11 +9425,11 @@
       </c>
       <c r="M193">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N193">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
@@ -9518,8 +9518,8 @@
         <v>-5</v>
       </c>
       <c r="M195">
-        <f t="shared" ref="M195:M258" si="10">IF(L195&lt;4,IF(L195&lt;2,IF(L195&lt;-1,IF(L195&lt;-3,0,1),2),3),4)</f>
-        <v>0</v>
+        <f t="shared" ref="M195:M258" si="10">IF(L195&lt;9,IF(L195&lt;5,IF(L195&lt;-3,IF(L195&lt;-7,0,1),2),3),4)</f>
+        <v>1</v>
       </c>
       <c r="N195">
         <f t="shared" ref="N195:N258" si="11">IF(M195&lt;3,IF(M195&lt;2,0,1),2)</f>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="M196">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N196">
         <f t="shared" si="11"/>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="M197">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N197">
         <f t="shared" si="11"/>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="M198">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N198">
         <f t="shared" si="11"/>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="M199">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N199">
         <f t="shared" si="11"/>
@@ -9754,11 +9754,11 @@
       </c>
       <c r="M200">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N200">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="M201">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N201">
         <f t="shared" si="11"/>
@@ -9989,11 +9989,11 @@
       </c>
       <c r="M205">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N205">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
@@ -10036,11 +10036,11 @@
       </c>
       <c r="M206">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N206">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="M207">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N207">
         <f t="shared" si="11"/>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="M208">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N208">
         <f t="shared" si="11"/>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="M209">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N209">
         <f t="shared" si="11"/>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="M211">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N211">
         <f t="shared" si="11"/>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="M216">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N216">
         <f t="shared" si="11"/>
@@ -10553,7 +10553,7 @@
       </c>
       <c r="M217">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N217">
         <f t="shared" si="11"/>
@@ -10600,11 +10600,11 @@
       </c>
       <c r="M218">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N218">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="M219">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N219">
         <f t="shared" si="11"/>
@@ -10694,11 +10694,11 @@
       </c>
       <c r="M220">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N220">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="M222">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N222">
         <f t="shared" si="11"/>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="M224">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N224">
         <f t="shared" si="11"/>
@@ -10929,7 +10929,7 @@
       </c>
       <c r="M225">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N225">
         <f t="shared" si="11"/>
@@ -11023,11 +11023,11 @@
       </c>
       <c r="M227">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N227">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
@@ -11070,7 +11070,7 @@
       </c>
       <c r="M228">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N228">
         <f t="shared" si="11"/>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="M229">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N229">
         <f t="shared" si="11"/>
@@ -11164,11 +11164,11 @@
       </c>
       <c r="M230">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N230">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="M232">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N232">
         <f t="shared" si="11"/>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="M233">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N233">
         <f t="shared" si="11"/>
@@ -11352,11 +11352,11 @@
       </c>
       <c r="M234">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N234">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="M235">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N235">
         <f t="shared" si="11"/>
@@ -11446,11 +11446,11 @@
       </c>
       <c r="M236">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N236">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
@@ -11634,7 +11634,7 @@
       </c>
       <c r="M240">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N240">
         <f t="shared" si="11"/>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="M241">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N241">
         <f t="shared" si="11"/>
@@ -11728,11 +11728,11 @@
       </c>
       <c r="M242">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N242">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
@@ -11775,11 +11775,11 @@
       </c>
       <c r="M243">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N243">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
@@ -11822,11 +11822,11 @@
       </c>
       <c r="M244">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N244">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="M246">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N246">
         <f t="shared" si="11"/>
@@ -12010,7 +12010,7 @@
       </c>
       <c r="M248">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N248">
         <f t="shared" si="11"/>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="M249">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N249">
         <f t="shared" si="11"/>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="M252">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N252">
         <f t="shared" si="11"/>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="M254">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N254">
         <f t="shared" si="11"/>
@@ -12339,7 +12339,7 @@
       </c>
       <c r="M255">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N255">
         <f t="shared" si="11"/>
@@ -12433,11 +12433,11 @@
       </c>
       <c r="M257">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N257">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
@@ -12526,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="M259">
-        <f t="shared" ref="M259:M260" si="13">IF(L259&lt;4,IF(L259&lt;2,IF(L259&lt;-1,IF(L259&lt;-3,0,1),2),3),4)</f>
+        <f t="shared" ref="M259:M260" si="13">IF(L259&lt;9,IF(L259&lt;5,IF(L259&lt;-3,IF(L259&lt;-7,0,1),2),3),4)</f>
         <v>2</v>
       </c>
       <c r="N259">
@@ -12574,11 +12574,11 @@
       </c>
       <c r="M260">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N260">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
